--- a/ZhuYuan/testData.xlsx
+++ b/ZhuYuan/testData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>操作</t>
   </si>
@@ -115,37 +115,34 @@
     <t>上传图片</t>
   </si>
   <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>html/body/center/p[1]/table/tbody/tr[1]/td[2]/input/asdas</t>
-  </si>
-  <si>
-    <t>C:\Users\jack.zhong\Desktop\add.png</t>
-  </si>
-  <si>
-    <t>attr</t>
-  </si>
-  <si>
-    <t>获取属性</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>.//*[@id='radio']/label[2]</t>
-  </si>
-  <si>
-    <t>获取文本</t>
-  </si>
-  <si>
-    <t>.//*[@id='showSelectResult']</t>
-  </si>
-  <si>
-    <t>属性=id</t>
-  </si>
-  <si>
-    <t>文本</t>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>C:\Users\jack.zhong\Desktop\Autoit.exe</t>
+  </si>
+  <si>
+    <t>.//*[@id='radio']/label[1]</t>
+  </si>
+  <si>
+    <t>duany</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>萨达</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>A&gt;百</t>
   </si>
 </sst>
 </file>
@@ -575,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -614,43 +611,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -658,24 +647,37 @@
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
     <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
